--- a/src/uploads/modelo-teste-full-stack.xlsx
+++ b/src/uploads/modelo-teste-full-stack.xlsx
@@ -4063,7 +4063,7 @@
   <dimension ref="A1:J1029"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A928">
-      <selection pane="topLeft" activeCell="F2" sqref="F2"/>
+      <selection pane="topLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4123,7 +4123,7 @@
         <v>365</v>
       </c>
       <c r="D2" s="2">
-        <v>44592.284282407411</v>
+        <v>44957.284282407411</v>
       </c>
       <c r="E2" t="s">
         <v>13</v>
@@ -4152,7 +4152,7 @@
         <v>365</v>
       </c>
       <c r="D3" s="2">
-        <v>44592.464236111111</v>
+        <v>45322.464236111111</v>
       </c>
       <c r="E3" t="s">
         <v>13</v>
